--- a/ESERCIZIO_M2-2-3_dati.xlsx
+++ b/ESERCIZIO_M2-2-3_dati.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="Questa_cartella_di_lavoro"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/043d97dbf498b1a1/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/043d97dbf498b1a1/Desktop/Consegne/Week-2-D4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="783" documentId="8_{54635663-374B-4A2B-A62D-5C1508BC25C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2697F2D8-55A9-4206-B4E8-A01D58BCAB82}"/>
+  <xr:revisionPtr revIDLastSave="785" documentId="8_{54635663-374B-4A2B-A62D-5C1508BC25C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{293A6DFD-7D12-4C7B-B664-1931099564BA}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vendite" sheetId="1" r:id="rId1"/>
@@ -538,7 +538,7 @@
     <numFmt numFmtId="164" formatCode="#,##0&quot;€&quot;"/>
     <numFmt numFmtId="165" formatCode="&quot;€&quot;\ #,##0.00"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="172" formatCode="#,##0\ &quot;€&quot;"/>
+    <numFmt numFmtId="167" formatCode="#,##0\ &quot;€&quot;"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -677,8 +677,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <extLst>
         <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
           <xfpb:xfComplement i="0"/>
@@ -689,7 +689,7 @@
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="34">
     <dxf>
       <fill>
         <patternFill>
@@ -710,55 +710,6 @@
           <bgColor theme="6" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="172" formatCode="#,##0\ &quot;€&quot;"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
     </dxf>
     <dxf>
       <fill>
@@ -1073,6 +1024,41 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="#,##0\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -5742,10 +5728,6 @@
 </FeaturePropertyBags>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Fabrizio Murgo" refreshedDate="45645.976826736114" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="86" xr:uid="{27CA6FFA-DE7F-48FD-AEC2-0B948D05F378}">
   <cacheSource type="worksheet">
@@ -8141,10 +8123,10 @@
     <dataField name=" Differenza" fld="12" baseField="0" baseItem="0" numFmtId="10"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="29">
+    <format dxfId="25">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="28">
+    <format dxfId="24">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -8153,7 +8135,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="27">
+    <format dxfId="23">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -8296,20 +8278,20 @@
     <dataField name="Prestazioni medie dipartimento" fld="2" subtotal="average" baseField="1" baseItem="0" numFmtId="2"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="33">
+    <format dxfId="29">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="32">
+    <format dxfId="28">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="31">
+    <format dxfId="27">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="30">
+    <format dxfId="26">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -8715,26 +8697,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5B94CA63-290C-4FE3-83DA-AE2AFCDB35FB}" name="Tabella1" displayName="Tabella1" ref="A1:C87" totalsRowShown="0" headerRowDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5B94CA63-290C-4FE3-83DA-AE2AFCDB35FB}" name="Tabella1" displayName="Tabella1" ref="A1:C87" totalsRowShown="0" headerRowDxfId="33">
   <autoFilter ref="A1:C87" xr:uid="{5B94CA63-290C-4FE3-83DA-AE2AFCDB35FB}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{7BA43E07-AB81-4433-92CA-B4FD0D3F281B}" name="CATEGORIA PRODOTTO" dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{A3225F53-3F60-4108-85BD-E9E81F0BB930}" name="PUNTO VENDITA" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{E1841BBF-67EE-4A5B-B988-D581A5A84D28}" name="VENDITE" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{7BA43E07-AB81-4433-92CA-B4FD0D3F281B}" name="CATEGORIA PRODOTTO" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{A3225F53-3F60-4108-85BD-E9E81F0BB930}" name="PUNTO VENDITA" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{E1841BBF-67EE-4A5B-B988-D581A5A84D28}" name="VENDITE" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3738CEBE-7149-4941-94FB-3128376A0AB2}" name="Tabella2" displayName="Tabella2" ref="A1:E61" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3738CEBE-7149-4941-94FB-3128376A0AB2}" name="Tabella2" displayName="Tabella2" ref="A1:E61" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
   <autoFilter ref="A1:E61" xr:uid="{3738CEBE-7149-4941-94FB-3128376A0AB2}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{9CCA41FB-9FF1-4641-BC1F-CD91A37317DD}" name="Codice Dipendente" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{C40112E8-47A0-45BD-A923-42B533EFC6F9}" name="Dipartimento" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{0FDABDCA-A6AE-49E8-90A9-4DC8B6AFD2CE}" name="Valutazione delle Prestazioni" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{2922406F-65CE-4A2E-9FEC-C6B654D0532E}" name="Valutazione dell'Anno Precedente" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{207682FA-3F42-45BD-A3B4-6D2E2C72C25C}" name="Dipendenti migliori " dataDxfId="20">
+    <tableColumn id="1" xr3:uid="{9CCA41FB-9FF1-4641-BC1F-CD91A37317DD}" name="Codice Dipendente" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{C40112E8-47A0-45BD-A923-42B533EFC6F9}" name="Dipartimento" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{0FDABDCA-A6AE-49E8-90A9-4DC8B6AFD2CE}" name="Valutazione delle Prestazioni" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{2922406F-65CE-4A2E-9FEC-C6B654D0532E}" name="Valutazione dell'Anno Precedente" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{207682FA-3F42-45BD-A3B4-6D2E2C72C25C}" name="Dipendenti migliori " dataDxfId="16">
       <calculatedColumnFormula>IF(Tabella2[[#This Row],[Valutazione delle Prestazioni]]&gt;4,"Ottima performance","Discreta performance")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8743,23 +8725,23 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DDDA8BC7-B124-46FA-BF70-7C9A135550EC}" name="Tabella3" displayName="Tabella3" ref="A1:K54" totalsRowShown="0" headerRowDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DDDA8BC7-B124-46FA-BF70-7C9A135550EC}" name="Tabella3" displayName="Tabella3" ref="A1:K54" totalsRowShown="0" headerRowDxfId="15">
   <autoFilter ref="A1:K54" xr:uid="{DDDA8BC7-B124-46FA-BF70-7C9A135550EC}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{2294B041-3281-49E9-AB27-EB8B0D650700}" name="Influencer" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{26A83551-3740-456E-81BF-7C324AD13A0C}" name="Data di Inizio" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{88D37DB4-D15B-44DD-B5B1-FB22695FE03A}" name="Follower Iniziali" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{F807CDCC-B2DF-41A9-A853-50F5EA07B936}" name="Follower Finali" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{C722D5AB-A874-4251-B559-4751202CABD4}" name="Post" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{48CA17B7-F8AA-4519-BD04-43F35F978045}" name="Like" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{59745E88-FAB4-4DAE-B176-35097169C10B}" name="Commenti" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{B4D34287-0D41-4D89-A842-DC33C6474D9C}" name="Crescita follower" dataDxfId="11">
+    <tableColumn id="1" xr3:uid="{2294B041-3281-49E9-AB27-EB8B0D650700}" name="Influencer" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{26A83551-3740-456E-81BF-7C324AD13A0C}" name="Data di Inizio" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{88D37DB4-D15B-44DD-B5B1-FB22695FE03A}" name="Follower Iniziali" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{F807CDCC-B2DF-41A9-A853-50F5EA07B936}" name="Follower Finali" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{C722D5AB-A874-4251-B559-4751202CABD4}" name="Post" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{48CA17B7-F8AA-4519-BD04-43F35F978045}" name="Like" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{59745E88-FAB4-4DAE-B176-35097169C10B}" name="Commenti" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{B4D34287-0D41-4D89-A842-DC33C6474D9C}" name="Crescita follower" dataDxfId="7">
       <calculatedColumnFormula>D2-C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{877A1F12-5B0F-4DE5-9033-A2681AA63D2E}" name="Interazione" dataDxfId="10">
+    <tableColumn id="9" xr3:uid="{877A1F12-5B0F-4DE5-9033-A2681AA63D2E}" name="Interazione" dataDxfId="6">
       <calculatedColumnFormula>AVERAGE(J2,E2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{DE68B410-5DDD-4EDB-A039-DCD06543CFCC}" name="Like e commenti" dataDxfId="9">
+    <tableColumn id="10" xr3:uid="{DE68B410-5DDD-4EDB-A039-DCD06543CFCC}" name="Like e commenti" dataDxfId="5">
       <calculatedColumnFormula>F2+G2</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="11" xr3:uid="{231A0B76-0188-4773-A97C-933F9D563B13}" name="Categoria">
@@ -34544,7 +34526,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:E61">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>($E2:$E61="Ottima performance")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34570,7 +34552,7 @@
   </sheetPr>
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
       <selection activeCell="AB38" sqref="AB38"/>
     </sheetView>
   </sheetViews>
@@ -44978,13 +44960,13 @@
       <c r="G1000" s="11"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J54">
-    <cfRule type="top10" dxfId="8" priority="4" rank="3"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C2:J54">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>_xlfn.RANK.EQ($J2,$J$2:$J$54)&lt;=3</formula>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1:J54">
+    <cfRule type="top10" dxfId="1" priority="4" rank="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -44998,8 +44980,8 @@
   </sheetPr>
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -55884,7 +55866,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="J1:J54 K1:M1">
-    <cfRule type="top10" dxfId="7" priority="1" rank="3"/>
+    <cfRule type="top10" dxfId="0" priority="1" rank="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
